--- a/covidMNE2703.xlsx
+++ b/covidMNE2703.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/covid19-mne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AE9E8E-2445-BD49-A8ED-B0B494ACCEC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED75CE18-C462-CB4B-AA2F-B8F4B46E196A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G20" si="0">E12-E11</f>
+        <f t="shared" ref="G12:G21" si="0">E12-E11</f>
         <v>8</v>
       </c>
       <c r="H12">
@@ -1278,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F20" si="1">(E13-E12)/E12</f>
+        <f t="shared" ref="F13:F21" si="1">(E13-E12)/E12</f>
         <v>0.3</v>
       </c>
       <c r="G13">
@@ -1508,6 +1508,37 @@
         <v>1</v>
       </c>
       <c r="I20">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43918</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>385</v>
+      </c>
+      <c r="E21">
+        <v>84</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>6278</v>
       </c>
     </row>

--- a/covidMNE2703.xlsx
+++ b/covidMNE2703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/covid19-mne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED75CE18-C462-CB4B-AA2F-B8F4B46E196A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA87CF6-6707-5449-A509-550259ABC708}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -902,11 +902,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1251,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G21" si="0">E12-E11</f>
+        <f t="shared" ref="G12:G24" si="0">E12-E11</f>
         <v>8</v>
       </c>
       <c r="H12">
@@ -1278,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F21" si="1">(E13-E12)/E12</f>
+        <f t="shared" ref="F13:F24" si="1">(E13-E12)/E12</f>
         <v>0.3</v>
       </c>
       <c r="G13">
@@ -1334,7 +1332,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E15">
         <v>16</v>
@@ -1365,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E16">
         <v>22</v>
@@ -1427,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="E18">
         <v>52</v>
@@ -1458,8 +1456,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <f>D18+44</f>
-        <v>310</v>
+        <v>426</v>
       </c>
       <c r="E19">
         <v>67</v>
@@ -1490,19 +1487,18 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <f>D19+75</f>
-        <v>385</v>
+        <v>532</v>
       </c>
       <c r="E20">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0.22388059701492538</v>
+        <v>4.4776119402985072E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1522,24 +1518,117 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>385</v>
+        <v>578</v>
       </c>
       <c r="E21">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>2.4390243902439025E-2</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43919</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>624</v>
+      </c>
+      <c r="E22">
+        <v>85</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>3.6585365853658534E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>6278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43920</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>719</v>
+      </c>
+      <c r="E23">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43921</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>885</v>
+      </c>
+      <c r="E24">
+        <v>109</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.19780219780219779</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>6375</v>
       </c>
     </row>
   </sheetData>

--- a/covidMNE2703.xlsx
+++ b/covidMNE2703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/covid19-mne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA87CF6-6707-5449-A509-550259ABC708}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BDD007-99E4-DC44-9ED2-B81365DECB3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -902,9 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1249,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G24" si="0">E12-E11</f>
+        <f t="shared" ref="G12:G25" si="0">E12-E11</f>
         <v>8</v>
       </c>
       <c r="H12">
@@ -1276,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F24" si="1">(E13-E12)/E12</f>
+        <f t="shared" ref="F13:F25" si="1">(E13-E12)/E12</f>
         <v>0.3</v>
       </c>
       <c r="G13">
@@ -1628,6 +1630,38 @@
         <v>2</v>
       </c>
       <c r="I24">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43922</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <f>D24+42+86</f>
+        <v>1013</v>
+      </c>
+      <c r="E25">
+        <v>123</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.12844036697247707</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>6375</v>
       </c>
     </row>

--- a/covidMNE2703.xlsx
+++ b/covidMNE2703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/covid19-mne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BDD007-99E4-DC44-9ED2-B81365DECB3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB34B63-F8A8-194B-8D40-5C52CCA33D3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G25" si="0">E12-E11</f>
+        <f t="shared" ref="G12:G26" si="0">E12-E11</f>
         <v>8</v>
       </c>
       <c r="H12">
@@ -1278,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F25" si="1">(E13-E12)/E12</f>
+        <f t="shared" ref="F13:F26" si="1">(E13-E12)/E12</f>
         <v>0.3</v>
       </c>
       <c r="G13">
@@ -1662,6 +1662,38 @@
         <v>2</v>
       </c>
       <c r="I25">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43923</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <f>D25+110</f>
+        <v>1123</v>
+      </c>
+      <c r="E26">
+        <v>140</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.13821138211382114</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>6375</v>
       </c>
     </row>

--- a/covidMNE2703.xlsx
+++ b/covidMNE2703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/covid19-mne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB34B63-F8A8-194B-8D40-5C52CCA33D3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7407D02-E598-F745-AEE6-0ACCA8CD9887}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1694,7 +1694,69 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <v>6375</v>
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43924</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>1277</v>
+      </c>
+      <c r="E27">
+        <v>174</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="2">(E27-E26)/E26</f>
+        <v>0.24285714285714285</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="3">E27-E26</f>
+        <v>34</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43925</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>1277</v>
+      </c>
+      <c r="E28">
+        <v>201</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="4">(E28-E27)/E27</f>
+        <v>0.15517241379310345</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28" si="5">E28-E27</f>
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>6380</v>
       </c>
     </row>
   </sheetData>

--- a/covidMNE2703.xlsx
+++ b/covidMNE2703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/covid19-mne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7407D02-E598-F745-AEE6-0ACCA8CD9887}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55BEE7-B85C-9944-A43C-01DE015238CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1742,20 +1742,82 @@
         <v>1277</v>
       </c>
       <c r="E28">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28" si="4">(E28-E27)/E27</f>
-        <v>0.15517241379310345</v>
+        <f t="shared" ref="F28:F30" si="4">(E28-E27)/E27</f>
+        <v>0.13218390804597702</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="5">E28-E27</f>
-        <v>27</v>
+        <f t="shared" ref="G28:G30" si="5">E28-E27</f>
+        <v>23</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>1277</v>
+      </c>
+      <c r="E29">
+        <v>203</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>3.0456852791878174E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43927</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>1277</v>
+      </c>
+      <c r="E30">
+        <v>223</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>9.8522167487684734E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>6380</v>
       </c>
     </row>

--- a/covidMNE2703.xlsx
+++ b/covidMNE2703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/covid19-mne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55BEE7-B85C-9944-A43C-01DE015238CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32413C74-926D-0C44-B05C-12F8A0D6DC3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,7 +905,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1739,7 +1739,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>1277</v>
+        <v>1423</v>
       </c>
       <c r="E28">
         <v>197</v>
@@ -1770,7 +1770,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>1277</v>
+        <v>1718</v>
       </c>
       <c r="E29">
         <v>203</v>
@@ -1801,18 +1801,18 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>1277</v>
+        <v>1915</v>
       </c>
       <c r="E30">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>9.8522167487684734E-2</v>
+        <v>0.14778325123152711</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>2</v>

--- a/covidMNE2703.xlsx
+++ b/covidMNE2703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/covid19-mne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32413C74-926D-0C44-B05C-12F8A0D6DC3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1CBB4D-5A65-1343-B6B4-1DA34211B3AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -902,13 +902,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1745,11 +1756,11 @@
         <v>197</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F30" si="4">(E28-E27)/E27</f>
+        <f t="shared" ref="F28:F33" si="4">(E28-E27)/E27</f>
         <v>0.13218390804597702</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G30" si="5">E28-E27</f>
+        <f t="shared" ref="G28:G33" si="5">E28-E27</f>
         <v>23</v>
       </c>
       <c r="H28">
@@ -1804,21 +1815,114 @@
         <v>1915</v>
       </c>
       <c r="E30">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F30">
         <f t="shared" si="4"/>
-        <v>0.14778325123152711</v>
+        <v>9.8522167487684734E-2</v>
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>6380</v>
+        <v>6644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>2045</v>
+      </c>
+      <c r="E31">
+        <v>239</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>7.1748878923766815E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>7294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>2194</v>
+      </c>
+      <c r="E32">
+        <v>248</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>3.7656903765690378E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>7391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43930</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>2480</v>
+      </c>
+      <c r="E33">
+        <v>252</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>7391</v>
       </c>
     </row>
   </sheetData>

--- a/covidMNE2703.xlsx
+++ b/covidMNE2703.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dovla/Desktop/covid19-mne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1CBB4D-5A65-1343-B6B4-1DA34211B3AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3EE543-1AF8-644E-9634-936C709E897A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>Country</t>
   </si>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1925,6 +1925,68 @@
         <v>7391</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43931</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>2480</v>
+      </c>
+      <c r="E34">
+        <v>255</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F35" si="6">(E34-E33)/E33</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G35" si="7">E34-E33</f>
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>7391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>2480</v>
+      </c>
+      <c r="E35">
+        <v>262</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>2.7450980392156862E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>7391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
